--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7265B7F-3D4A-4E4E-82EE-77CFDFB8F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -184,11 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:PostDepCode
-存簿：P劃撥：G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>變更扣款帳號時授權成功才會更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,18 +229,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>共用代碼檔 RepayCode
-1: 匯款轉帳
-2: 銀行扣款
-3: 員工扣薪
-4: 支票
-5: 特約金
-6: 人事特約金
-7: 定存特約
-8: 劃撥存款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>decimald</t>
@@ -312,13 +296,31 @@
   <si>
     <t>findFacmNoFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔 RepayCode
+1:匯款轉帳
+2:銀行扣款
+3:員工扣薪
+4:支票
+5:特約金
+6:人事特約金
+7:定存特約
+8:劃撥存款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>空白:未授權
 0:授權成功    
 1:停止使用    
-2.取消授權     
-8.授權失敗
+2:取消授權     
+8:授權失敗
 9:已送出授權</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -675,7 +677,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,6 +768,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -801,6 +820,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -976,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
@@ -1000,10 +1036,10 @@
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1028,7 +1064,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>23</v>
@@ -1054,7 +1090,7 @@
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1111,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -1165,19 +1201,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1197,12 +1233,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.4">
+    <row r="14" spans="1:7" ht="48.6">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>42</v>
@@ -1215,7 +1251,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1235,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="97.2">
@@ -1243,10 +1279,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>21</v>
@@ -1263,16 +1299,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
@@ -1282,20 +1318,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1383,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1412,35 +1448,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
